--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2498466.142784026</v>
+        <v>2497739.5439128</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5851605.615330305</v>
+        <v>5851605.6153303</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.6793124478</v>
+        <v>864456.6793124476</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>337.9004622982237</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>151.4797979610354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
         <v>132.6551205385437</v>
@@ -752,7 +752,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>50.77005182037605</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
         <v>70.03974083464111</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>91.42297362470889</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -803,7 +803,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
         <v>157.8079400398083</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>141.0467127945204</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>58.06422306799997</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>83.1871342812352</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>185.5382644286885</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>116.1738355616533</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>120.0377209491829</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>185.9575550365586</v>
       </c>
       <c r="E8" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>41.90132882518836</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1299,7 +1299,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>140.1955519265328</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -1311,7 +1311,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>58.11593919665176</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D11" t="n">
-        <v>370.9203488815331</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F11" t="n">
         <v>387.3211661995113</v>
@@ -1387,10 +1387,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975951</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U11" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V11" t="n">
         <v>316.8402373905461</v>
@@ -1435,7 +1435,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X11" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y11" t="n">
         <v>367.4283645950528</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D13" t="n">
-        <v>128.400756503981</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>66.53891840003004</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>5.11335489263447</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T13" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U13" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198763</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y13" t="n">
         <v>192.9893998987849</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C14" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E14" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
         <v>387.3211661995113</v>
@@ -1624,10 +1624,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975951</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>104.429322727504</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T14" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U14" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V14" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905467</v>
       </c>
       <c r="W14" t="n">
         <v>350.4237561298451</v>
       </c>
       <c r="X14" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y14" t="n">
         <v>367.4283645950528</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.7490016176445</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875626</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501628</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>155.0289087125508</v>
@@ -1821,19 +1821,19 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U16" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W16" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X16" t="n">
-        <v>206.4614817925754</v>
+        <v>154.6211305767102</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C17" t="n">
-        <v>376.5244030535258</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D17" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E17" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
         <v>387.3211661995113</v>
@@ -1861,10 +1861,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975951</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T17" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U17" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V17" t="n">
         <v>316.8402373905461</v>
@@ -1909,7 +1909,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X17" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y17" t="n">
         <v>367.4283645950528</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>128.400756503981</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162598</v>
+        <v>0.0282384924380996</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037904</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U19" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V19" t="n">
-        <v>175.4661461262801</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X19" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
         <v>192.9893998987849</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C20" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D20" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E20" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F20" t="n">
         <v>387.3211661995113</v>
@@ -2098,10 +2098,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722223</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975951</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T20" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U20" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V20" t="n">
         <v>316.8402373905461</v>
@@ -2146,7 +2146,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X20" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y20" t="n">
         <v>367.4283645950528</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875626</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
-        <v>128.400756503981</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>42.18897970850543</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6124389162598</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U22" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>189.8075946676701</v>
       </c>
       <c r="W22" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
         <v>192.9893998987849</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C23" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D23" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E23" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F23" t="n">
         <v>387.3211661995113</v>
@@ -2335,10 +2335,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975951</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T23" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U23" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V23" t="n">
         <v>316.8402373905461</v>
@@ -2383,7 +2383,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X23" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y23" t="n">
         <v>367.4283645950528</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875626</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6124389162598</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501628</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S25" t="n">
         <v>155.0289087125508</v>
@@ -2532,19 +2532,19 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U25" t="n">
-        <v>25.18068280164179</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835352</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198763</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>106.5348546919083</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U26" t="n">
-        <v>224.9909450967475</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V26" t="n">
         <v>316.8402373905461</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
-        <v>58.48712092943004</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S28" t="n">
         <v>155.0289087125508</v>
@@ -2772,16 +2772,16 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
         <v>246.7800261198764</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.9893998987849</v>
+        <v>27.06535790726446</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X29" t="n">
-        <v>367.1380221263995</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y29" t="n">
         <v>367.4283645950528</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147.2975102675778</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
         <v>207.6543099067269</v>
@@ -3012,10 +3012,10 @@
         <v>241.6479458835353</v>
       </c>
       <c r="W31" t="n">
-        <v>246.7800261198764</v>
+        <v>132.39570706721</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>192.9893998987849</v>
@@ -3049,7 +3049,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C34" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125508</v>
+        <v>103.1885574966852</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U34" t="n">
         <v>250.4712242529991</v>
@@ -3249,13 +3249,13 @@
         <v>241.6479458835353</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X34" t="n">
-        <v>171.3831619646514</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>387.3211661995113</v>
       </c>
       <c r="G35" t="n">
-        <v>375.1420595397591</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H35" t="n">
         <v>278.3004706722212</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975957</v>
+        <v>55.9893033297596</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275031</v>
       </c>
       <c r="T35" t="n">
         <v>190.4854774862718</v>
@@ -3426,13 +3426,13 @@
         <v>156.323767603766</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6955037609144</v>
+        <v>116.7517808769431</v>
       </c>
       <c r="D37" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>136.078945437374</v>
       </c>
       <c r="H37" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T37" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U37" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>241.6479458835353</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>380.6978716019343</v>
       </c>
       <c r="F38" t="n">
-        <v>387.3211661995121</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G38" t="n">
         <v>375.1420595397581</v>
@@ -3523,7 +3523,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332975957</v>
+        <v>55.9893033297596</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>42.06023579521895</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>136.078945437374</v>
@@ -3681,7 +3681,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T40" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U40" t="n">
         <v>250.4712242529991</v>
@@ -3726,10 +3726,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X40" t="n">
-        <v>206.4614817925755</v>
+        <v>196.1370108144045</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3760,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>343.4619167409749</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3915,7 +3915,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>54.68688746169129</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>142.5359303380066</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3988,7 +3988,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>413.7369107533264</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
@@ -4042,7 +4042,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>88.08110241150655</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4137,19 +4137,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>177.4001216010506</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>191.9330689822496</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1191.641104201625</v>
+        <v>1298.098156350604</v>
       </c>
       <c r="C2" t="n">
-        <v>781.5165135148947</v>
+        <v>887.9735656638744</v>
       </c>
       <c r="D2" t="n">
-        <v>781.0929876483592</v>
+        <v>483.5096357569349</v>
       </c>
       <c r="E2" t="n">
-        <v>770.79317620566</v>
+        <v>142.1960374759009</v>
       </c>
       <c r="F2" t="n">
-        <v>349.7627641593475</v>
+        <v>125.2060294699925</v>
       </c>
       <c r="G2" t="n">
-        <v>345.0748840925838</v>
+        <v>120.5181494032287</v>
       </c>
       <c r="H2" t="n">
-        <v>34.16638672030179</v>
+        <v>120.5181494032287</v>
       </c>
       <c r="I2" t="n">
-        <v>34.16638672030179</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="J2" t="n">
-        <v>288.3518581880561</v>
+        <v>288.3518581880562</v>
       </c>
       <c r="K2" t="n">
-        <v>711.1608938517907</v>
+        <v>711.1608938517918</v>
       </c>
       <c r="L2" t="n">
-        <v>822.1446189980551</v>
+        <v>1133.969929515527</v>
       </c>
       <c r="M2" t="n">
-        <v>1244.95365466179</v>
+        <v>1556.778965179263</v>
       </c>
       <c r="N2" t="n">
-        <v>1244.95365466179</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="O2" t="n">
-        <v>1244.95365466179</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="P2" t="n">
-        <v>1667.762690325524</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="Q2" t="n">
-        <v>1667.762690325524</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.319336015089</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="S2" t="n">
-        <v>1573.03826080919</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="T2" t="n">
-        <v>1350.831776756049</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="U2" t="n">
-        <v>1350.831776756049</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="V2" t="n">
-        <v>1350.831776756049</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="W2" t="n">
-        <v>1350.831776756049</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="X2" t="n">
-        <v>1350.831776756049</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="Y2" t="n">
-        <v>1197.82187982571</v>
+        <v>1708.319336015094</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>657.2899965478174</v>
+        <v>712.9972286068362</v>
       </c>
       <c r="C3" t="n">
-        <v>523.294925296763</v>
+        <v>579.0021573557819</v>
       </c>
       <c r="D3" t="n">
-        <v>406.3977675161555</v>
+        <v>462.1049995751744</v>
       </c>
       <c r="E3" t="n">
-        <v>285.9049515084835</v>
+        <v>341.6121835675024</v>
       </c>
       <c r="F3" t="n">
-        <v>176.945071690988</v>
+        <v>232.652303750007</v>
       </c>
       <c r="G3" t="n">
         <v>125.6621910643456</v>
       </c>
       <c r="H3" t="n">
-        <v>54.91497810006162</v>
+        <v>54.9149781000617</v>
       </c>
       <c r="I3" t="n">
-        <v>34.16638672030179</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="J3" t="n">
-        <v>226.979244282935</v>
+        <v>226.9792442829351</v>
       </c>
       <c r="K3" t="n">
-        <v>226.979244282935</v>
+        <v>226.9792442829351</v>
       </c>
       <c r="L3" t="n">
-        <v>483.2972806410069</v>
+        <v>226.9792442829351</v>
       </c>
       <c r="M3" t="n">
-        <v>906.1063163047414</v>
+        <v>226.9792442829351</v>
       </c>
       <c r="N3" t="n">
-        <v>906.1063163047414</v>
+        <v>512.8568000036391</v>
       </c>
       <c r="O3" t="n">
-        <v>906.1063163047414</v>
+        <v>935.6658356673748</v>
       </c>
       <c r="P3" t="n">
-        <v>1328.915351968476</v>
+        <v>1358.474871331111</v>
       </c>
       <c r="Q3" t="n">
-        <v>1678.759816652459</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.319336015089</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="S3" t="n">
-        <v>1600.329326129398</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="T3" t="n">
-        <v>1440.987462316406</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="U3" t="n">
-        <v>1243.636651454625</v>
+        <v>1615.972898010337</v>
       </c>
       <c r="V3" t="n">
-        <v>1029.925124447659</v>
+        <v>1402.261371003371</v>
       </c>
       <c r="W3" t="n">
-        <v>816.6919561839874</v>
+        <v>1189.0282027397</v>
       </c>
       <c r="X3" t="n">
-        <v>816.6919561839874</v>
+        <v>1012.702220878593</v>
       </c>
       <c r="Y3" t="n">
-        <v>657.2899965478174</v>
+        <v>853.3002612424228</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>773.1793319910646</v>
+        <v>676.566174010391</v>
       </c>
       <c r="C4" t="n">
-        <v>602.0859595527811</v>
+        <v>676.566174010391</v>
       </c>
       <c r="D4" t="n">
-        <v>442.5913148756911</v>
+        <v>676.566174010391</v>
       </c>
       <c r="E4" t="n">
-        <v>442.5913148756911</v>
+        <v>515.6553588787106</v>
       </c>
       <c r="F4" t="n">
-        <v>442.5913148756911</v>
+        <v>351.0242329893018</v>
       </c>
       <c r="G4" t="n">
-        <v>300.119887810519</v>
+        <v>183.7738419148452</v>
       </c>
       <c r="H4" t="n">
-        <v>150.5124326159756</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="I4" t="n">
-        <v>34.16638672030179</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="J4" t="n">
-        <v>48.24893612551231</v>
+        <v>48.2489361255124</v>
       </c>
       <c r="K4" t="n">
-        <v>202.8012638477503</v>
+        <v>202.8012638477504</v>
       </c>
       <c r="L4" t="n">
-        <v>462.6983641278108</v>
+        <v>462.6983641278109</v>
       </c>
       <c r="M4" t="n">
-        <v>751.9624205683041</v>
+        <v>751.9624205683042</v>
       </c>
       <c r="N4" t="n">
         <v>1032.801202962554</v>
       </c>
       <c r="O4" t="n">
-        <v>1292.361813289028</v>
+        <v>1292.361813289029</v>
       </c>
       <c r="P4" t="n">
         <v>1498.037253538641</v>
@@ -4512,28 +4512,28 @@
         <v>1563.565283341152</v>
       </c>
       <c r="R4" t="n">
-        <v>1478.292565016551</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="S4" t="n">
-        <v>1478.292565016551</v>
+        <v>1291.900796896462</v>
       </c>
       <c r="T4" t="n">
-        <v>1478.292565016551</v>
+        <v>1291.900796896462</v>
       </c>
       <c r="U4" t="n">
-        <v>1478.292565016551</v>
+        <v>1009.102649442586</v>
       </c>
       <c r="V4" t="n">
-        <v>1478.292565016551</v>
+        <v>735.2169043821082</v>
       </c>
       <c r="W4" t="n">
-        <v>1199.222900525426</v>
+        <v>676.566174010391</v>
       </c>
       <c r="X4" t="n">
-        <v>960.879038385109</v>
+        <v>676.566174010391</v>
       </c>
       <c r="Y4" t="n">
-        <v>960.879038385109</v>
+        <v>676.566174010391</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>974.6830684215697</v>
+        <v>654.2465468795142</v>
       </c>
       <c r="C5" t="n">
-        <v>968.5988817752439</v>
+        <v>244.1219561927843</v>
       </c>
       <c r="D5" t="n">
-        <v>564.1349518683044</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E5" t="n">
         <v>149.794736385201</v>
@@ -4570,19 +4570,19 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N5" t="n">
-        <v>1329.636426430007</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O5" t="n">
-        <v>1726.536628995245</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
         <v>1726.536628995245</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V5" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W5" t="n">
-        <v>1569.212905409372</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X5" t="n">
-        <v>1381.800517097565</v>
+        <v>1465.404399595914</v>
       </c>
       <c r="Y5" t="n">
-        <v>980.8638440456551</v>
+        <v>1064.467726544004</v>
       </c>
     </row>
     <row r="6">
@@ -4652,22 +4652,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>704.7239474634683</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1221.566882129794</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.8584580678856</v>
+        <v>467.2132313969092</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>467.2132313969092</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T7" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U7" t="n">
-        <v>1299.499495805762</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V7" t="n">
-        <v>1025.613750745284</v>
+        <v>984.6267580283516</v>
       </c>
       <c r="W7" t="n">
-        <v>746.5440862541582</v>
+        <v>705.5570935372259</v>
       </c>
       <c r="X7" t="n">
-        <v>625.2938630731653</v>
+        <v>467.2132313969092</v>
       </c>
       <c r="Y7" t="n">
-        <v>400.5581644619299</v>
+        <v>467.2132313969092</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>930.6558803095402</v>
+        <v>758.0550526929721</v>
       </c>
       <c r="C8" t="n">
-        <v>520.5312896228103</v>
+        <v>347.9304620062422</v>
       </c>
       <c r="D8" t="n">
-        <v>520.1077637562748</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E8" t="n">
-        <v>509.8079523135756</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F8" t="n">
-        <v>88.77754026726313</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G8" t="n">
-        <v>84.08966020049938</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
@@ -4807,22 +4807,22 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M8" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N8" t="n">
-        <v>1329.636426430007</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O8" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>1846.479361096332</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
         <v>2047.697635790537</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V8" t="n">
-        <v>1738.416726816583</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W8" t="n">
-        <v>1738.416726816583</v>
+        <v>1569.212905409372</v>
       </c>
       <c r="X8" t="n">
-        <v>1337.773328985535</v>
+        <v>1569.212905409372</v>
       </c>
       <c r="Y8" t="n">
-        <v>936.8366559336256</v>
+        <v>1168.276232357462</v>
       </c>
     </row>
     <row r="9">
@@ -4889,22 +4889,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>704.7239474634683</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>704.7239474634683</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="N9" t="n">
-        <v>1221.566882129794</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O9" t="n">
-        <v>1221.566882129794</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1111.799789411717</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C10" t="n">
-        <v>940.706416973434</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D10" t="n">
-        <v>781.211772296344</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4989,25 +4989,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T10" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U10" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V10" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W10" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X10" t="n">
-        <v>1299.499495805762</v>
+        <v>1427.188295040345</v>
       </c>
       <c r="Y10" t="n">
-        <v>1299.499495805762</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G11" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H11" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5126,19 +5126,19 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M12" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N12" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O12" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
         <v>2110.173374178493</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>491.5088160697952</v>
+        <v>431.4489218235257</v>
       </c>
       <c r="C13" t="n">
-        <v>491.5088160697952</v>
+        <v>290.152460219927</v>
       </c>
       <c r="D13" t="n">
-        <v>361.8110822273901</v>
+        <v>160.4547263775218</v>
       </c>
       <c r="E13" t="n">
-        <v>230.6971779303945</v>
+        <v>160.4547263775218</v>
       </c>
       <c r="F13" t="n">
-        <v>230.6971779303945</v>
+        <v>160.4547263775218</v>
       </c>
       <c r="G13" t="n">
-        <v>93.2436976906228</v>
+        <v>160.4547263775218</v>
       </c>
       <c r="H13" t="n">
-        <v>93.2436976906228</v>
+        <v>160.4547263775218</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N13" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O13" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P13" t="n">
         <v>1761.542230672484</v>
@@ -5226,25 +5226,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S13" t="n">
-        <v>1851.109207842015</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T13" t="n">
-        <v>1641.357379653402</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U13" t="n">
-        <v>1388.356143034211</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V13" t="n">
-        <v>1144.267308808418</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W13" t="n">
-        <v>894.9945551519774</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="X13" t="n">
-        <v>686.4476038463456</v>
+        <v>784.2905051594357</v>
       </c>
       <c r="Y13" t="n">
-        <v>491.5088160697952</v>
+        <v>589.3517173828852</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D14" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E14" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>809.8415093489448</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G14" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5305,19 +5305,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T14" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U14" t="n">
-        <v>4137.027566035663</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V14" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176682</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X14" t="n">
         <v>3092.17704518032</v>
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L15" t="n">
-        <v>741.8628115185547</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M15" t="n">
-        <v>741.8628115185547</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N15" t="n">
-        <v>844.5103911440685</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O15" t="n">
-        <v>1548.467481689963</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="P15" t="n">
-        <v>2110.173374178493</v>
+        <v>1771.84401836374</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2121.688483047723</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>365.654063591217</v>
+        <v>234.5401592942214</v>
       </c>
       <c r="C16" t="n">
-        <v>224.3576019876184</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>224.3576019876184</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
         <v>93.2436976906228</v>
@@ -5436,22 +5436,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N16" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O16" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P16" t="n">
         <v>1761.542230672484</v>
@@ -5460,28 +5460,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S16" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T16" t="n">
-        <v>1434.451719820137</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U16" t="n">
-        <v>1181.450483200946</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V16" t="n">
-        <v>937.3616489751525</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W16" t="n">
-        <v>688.0888953187118</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="X16" t="n">
-        <v>479.5419440130801</v>
+        <v>587.3817426301315</v>
       </c>
       <c r="Y16" t="n">
-        <v>479.5419440130801</v>
+        <v>392.442954853581</v>
       </c>
     </row>
     <row r="17">
@@ -5494,22 +5494,22 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C17" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D17" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E17" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H17" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5594,25 +5594,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>1236.515282066875</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
         <v>2110.173374178493</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>708.0510527972456</v>
+        <v>496.6738210118496</v>
       </c>
       <c r="C19" t="n">
-        <v>566.754591193647</v>
+        <v>496.6738210118496</v>
       </c>
       <c r="D19" t="n">
-        <v>437.0568573512419</v>
+        <v>496.6738210118496</v>
       </c>
       <c r="E19" t="n">
-        <v>437.0568573512419</v>
+        <v>365.5599167148539</v>
       </c>
       <c r="F19" t="n">
-        <v>437.0568573512419</v>
+        <v>230.72570166013</v>
       </c>
       <c r="G19" t="n">
-        <v>299.6033771114702</v>
+        <v>93.27222142035825</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N19" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O19" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P19" t="n">
         <v>1761.542230672484</v>
@@ -5700,25 +5700,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S19" t="n">
-        <v>1699.679355498665</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T19" t="n">
-        <v>1699.679355498665</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U19" t="n">
-        <v>1446.678118879474</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V19" t="n">
-        <v>1269.439587438787</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W19" t="n">
-        <v>1269.439587438787</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="X19" t="n">
-        <v>1060.892636133156</v>
+        <v>691.6126087884001</v>
       </c>
       <c r="Y19" t="n">
-        <v>865.953848356605</v>
+        <v>496.6738210118496</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>809.8415093489459</v>
       </c>
       <c r="G20" t="n">
-        <v>430.910136076463</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H20" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>549.0499539559215</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>792.6116878668968</v>
+        <v>234.5401592942214</v>
       </c>
       <c r="C22" t="n">
-        <v>651.3152262632982</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>521.6174924208931</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>390.5035881238974</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>255.6693730691736</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>213.0542420504812</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5910,22 +5910,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K22" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N22" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O22" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P22" t="n">
         <v>1761.542230672484</v>
@@ -5937,25 +5937,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>1856.27421278407</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T22" t="n">
-        <v>1856.27421278407</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U22" t="n">
-        <v>1603.272976164879</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V22" t="n">
-        <v>1603.272976164879</v>
+        <v>1045.201447592204</v>
       </c>
       <c r="W22" t="n">
-        <v>1354.000222508438</v>
+        <v>795.9286939357632</v>
       </c>
       <c r="X22" t="n">
-        <v>1145.453271202807</v>
+        <v>587.3817426301315</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.5144834262563</v>
+        <v>392.442954853581</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489452</v>
+        <v>809.8415093489455</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764621</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H23" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6071,22 +6071,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3563.662974992641</v>
+        <v>973.9991721489654</v>
       </c>
       <c r="C25" t="n">
-        <v>3422.366513389042</v>
+        <v>832.7027105453667</v>
       </c>
       <c r="D25" t="n">
-        <v>3422.366513389042</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="E25" t="n">
-        <v>3291.252609092046</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="F25" t="n">
-        <v>3156.418394037322</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G25" t="n">
-        <v>3018.964913797551</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H25" t="n">
-        <v>2899.154369437692</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I25" t="n">
-        <v>2899.154369437692</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>2942.440871151978</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K25" t="n">
-        <v>3126.19715118329</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L25" t="n">
-        <v>3415.298203772425</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M25" t="n">
-        <v>3733.766212521994</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N25" t="n">
-        <v>4043.808947225319</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O25" t="n">
-        <v>4332.573509860867</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P25" t="n">
-        <v>4567.452902419554</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>4606.709077041224</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S25" t="n">
-        <v>4450.114219755819</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T25" t="n">
-        <v>4240.362391567206</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U25" t="n">
-        <v>4214.927358434235</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="V25" t="n">
-        <v>3970.838524208441</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="W25" t="n">
-        <v>3721.565770552</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="X25" t="n">
-        <v>3721.565770552</v>
+        <v>1326.840755484875</v>
       </c>
       <c r="Y25" t="n">
-        <v>3721.565770552</v>
+        <v>1131.901967708325</v>
       </c>
     </row>
     <row r="26">
@@ -6205,19 +6205,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D26" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F26" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G26" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H26" t="n">
         <v>149.7985495388648</v>
@@ -6226,10 +6226,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6241,7 +6241,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P26" t="n">
         <v>4300.467232046283</v>
@@ -6256,13 +6256,13 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U26" t="n">
         <v>4137.027566035664</v>
       </c>
       <c r="V26" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W26" t="n">
         <v>3463.023532176683</v>
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K27" t="n">
-        <v>549.0499539559215</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L27" t="n">
-        <v>549.0499539559215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M27" t="n">
-        <v>1392.027034650488</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3440.72262544558</v>
+        <v>452.2031986522062</v>
       </c>
       <c r="C28" t="n">
-        <v>3299.426163841981</v>
+        <v>310.9067370486075</v>
       </c>
       <c r="D28" t="n">
-        <v>3240.348263913264</v>
+        <v>310.9067370486075</v>
       </c>
       <c r="E28" t="n">
-        <v>3240.348263913264</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="F28" t="n">
-        <v>3105.51404885854</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G28" t="n">
-        <v>3105.51404885854</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H28" t="n">
-        <v>2985.703504498682</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I28" t="n">
-        <v>2899.154369437693</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>2942.440871151978</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K28" t="n">
-        <v>3126.197151183291</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L28" t="n">
-        <v>3415.298203772426</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M28" t="n">
-        <v>3733.766212521994</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N28" t="n">
-        <v>4043.808947225319</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O28" t="n">
-        <v>4332.573509860867</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P28" t="n">
-        <v>4567.452902419554</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S28" t="n">
-        <v>4505.590027245735</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T28" t="n">
-        <v>4295.838199057122</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U28" t="n">
-        <v>4042.836962437931</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V28" t="n">
-        <v>4042.836962437931</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W28" t="n">
-        <v>3793.56420878149</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X28" t="n">
-        <v>3793.56420878149</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y28" t="n">
-        <v>3598.62542100494</v>
+        <v>452.2031986522062</v>
       </c>
     </row>
     <row r="29">
@@ -6445,19 +6445,19 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E29" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G29" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6505,10 +6505,10 @@
         <v>3463.023532176684</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>347.8884571052052</v>
+        <v>450.7870281976157</v>
       </c>
       <c r="C31" t="n">
-        <v>347.8884571052052</v>
+        <v>309.490566594017</v>
       </c>
       <c r="D31" t="n">
-        <v>347.8884571052052</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="E31" t="n">
-        <v>347.8884571052052</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="F31" t="n">
-        <v>213.0542420504813</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G31" t="n">
-        <v>213.0542420504813</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6645,28 +6645,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S31" t="n">
-        <v>1856.27421278407</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T31" t="n">
-        <v>1646.522384595457</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U31" t="n">
-        <v>1393.521147976266</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V31" t="n">
-        <v>1149.432313750473</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W31" t="n">
-        <v>900.1595600940318</v>
+        <v>803.6286115335257</v>
       </c>
       <c r="X31" t="n">
-        <v>691.6126087884001</v>
+        <v>803.6286115335257</v>
       </c>
       <c r="Y31" t="n">
-        <v>496.6738210118496</v>
+        <v>608.6898237569752</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D32" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E32" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489449</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H32" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6715,7 +6715,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
@@ -6739,13 +6739,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X32" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y32" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="33">
@@ -6785,19 +6785,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1458.288960155805</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>2019.994852644335</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3779.909843896035</v>
+        <v>234.5401592942215</v>
       </c>
       <c r="C34" t="n">
-        <v>3638.613382292437</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3508.915648450031</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3377.801744153036</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3242.967529098312</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3105.51404885854</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>2985.703504498682</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>2899.154369437693</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>2942.440871151978</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K34" t="n">
-        <v>3126.197151183291</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L34" t="n">
-        <v>3415.298203772426</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M34" t="n">
-        <v>3733.766212521994</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N34" t="n">
-        <v>4043.808947225319</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O34" t="n">
-        <v>4332.573509860867</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P34" t="n">
-        <v>4567.452902419554</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R34" t="n">
-        <v>4606.709077041224</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S34" t="n">
-        <v>4450.114219755819</v>
+        <v>1752.043346625802</v>
       </c>
       <c r="T34" t="n">
-        <v>4450.114219755819</v>
+        <v>1542.291518437189</v>
       </c>
       <c r="U34" t="n">
-        <v>4197.112983136628</v>
+        <v>1289.290281817998</v>
       </c>
       <c r="V34" t="n">
-        <v>3953.024148910835</v>
+        <v>1045.201447592204</v>
       </c>
       <c r="W34" t="n">
-        <v>3953.024148910835</v>
+        <v>795.9286939357635</v>
       </c>
       <c r="X34" t="n">
-        <v>3779.909843896035</v>
+        <v>587.3817426301316</v>
       </c>
       <c r="Y34" t="n">
-        <v>3779.909843896035</v>
+        <v>392.4429548535811</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D35" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E35" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489459</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G35" t="n">
         <v>430.910136076462</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T35" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U35" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V35" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W35" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X35" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y35" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>1266.074801429505</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>834.9346609057079</v>
+        <v>435.1774047862756</v>
       </c>
       <c r="C37" t="n">
-        <v>697.8684954906429</v>
+        <v>317.2463129913836</v>
       </c>
       <c r="D37" t="n">
-        <v>568.1707616482378</v>
+        <v>317.2463129913836</v>
       </c>
       <c r="E37" t="n">
-        <v>437.0568573512421</v>
+        <v>317.2463129913836</v>
       </c>
       <c r="F37" t="n">
-        <v>437.0568573512421</v>
+        <v>317.2463129913836</v>
       </c>
       <c r="G37" t="n">
-        <v>299.6033771114703</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H37" t="n">
         <v>179.7928327516118</v>
@@ -7101,7 +7101,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M37" t="n">
         <v>927.8555407749236</v>
@@ -7128,19 +7128,19 @@
         <v>1489.927527310052</v>
       </c>
       <c r="U37" t="n">
-        <v>1236.926290690861</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="V37" t="n">
-        <v>992.8374564650675</v>
+        <v>1245.838693084258</v>
       </c>
       <c r="W37" t="n">
-        <v>992.8374564650675</v>
+        <v>996.5659394278174</v>
       </c>
       <c r="X37" t="n">
-        <v>992.8374564650675</v>
+        <v>788.0189881221856</v>
       </c>
       <c r="Y37" t="n">
-        <v>992.8374564650675</v>
+        <v>593.0802003456351</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D38" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E38" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F38" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G38" t="n">
         <v>430.910136076462</v>
@@ -7259,22 +7259,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M39" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>479.5419440130794</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="C40" t="n">
-        <v>479.5419440130794</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="D40" t="n">
-        <v>479.5419440130794</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="E40" t="n">
-        <v>479.5419440130794</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="F40" t="n">
-        <v>437.0568573512421</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="G40" t="n">
-        <v>299.6033771114703</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H40" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7338,7 +7338,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L40" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M40" t="n">
         <v>927.8555407749236</v>
@@ -7356,28 +7356,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S40" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T40" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U40" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V40" t="n">
-        <v>937.361648975152</v>
+        <v>992.8374564650672</v>
       </c>
       <c r="W40" t="n">
-        <v>688.0888953187111</v>
+        <v>743.5647028086264</v>
       </c>
       <c r="X40" t="n">
-        <v>479.5419440130794</v>
+        <v>545.4465100668036</v>
       </c>
       <c r="Y40" t="n">
-        <v>479.5419440130794</v>
+        <v>350.5077222902531</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2139.066799289355</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>3350.868049836802</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>2950.224652005755</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2549.287978953845</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>1627.989961721529</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>1627.989961721529</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
         <v>2110.173374178493</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.6240469015422</v>
+        <v>1066.231502096085</v>
       </c>
       <c r="C43" t="n">
-        <v>745.5306744632587</v>
+        <v>895.138129657802</v>
       </c>
       <c r="D43" t="n">
-        <v>586.0360297861687</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E43" t="n">
-        <v>425.1252146544881</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F43" t="n">
-        <v>260.4940887650794</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H43" t="n">
         <v>93.2436976906228</v>
@@ -7608,13 +7608,13 @@
         <v>1622.642594311473</v>
       </c>
       <c r="W43" t="n">
-        <v>1567.403314047138</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X43" t="n">
-        <v>1329.059451906822</v>
+        <v>1478.666907101365</v>
       </c>
       <c r="Y43" t="n">
-        <v>1104.323753295587</v>
+        <v>1253.93120849013</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7678,22 +7678,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4182.917908737509</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V44" t="n">
-        <v>3833.080354073989</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W44" t="n">
-        <v>3449.320053209158</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X44" t="n">
-        <v>3360.349242692484</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y44" t="n">
-        <v>2959.412569640574</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>524.2254458227151</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>524.2254458227151</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>524.2254458227151</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>524.2254458227151</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.6491574993933</v>
+        <v>757.1294022244522</v>
       </c>
       <c r="C46" t="n">
-        <v>413.6491574993933</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="D46" t="n">
-        <v>254.1545128223033</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E46" t="n">
-        <v>93.2436976906228</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F46" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G46" t="n">
         <v>93.2436976906228</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1537.369875986873</v>
+        <v>1443.45055229021</v>
       </c>
       <c r="U46" t="n">
-        <v>1537.369875986873</v>
+        <v>1443.45055229021</v>
       </c>
       <c r="V46" t="n">
-        <v>1343.498089136115</v>
+        <v>1169.564807229732</v>
       </c>
       <c r="W46" t="n">
-        <v>1064.42842464499</v>
+        <v>1169.564807229732</v>
       </c>
       <c r="X46" t="n">
-        <v>826.084562504673</v>
+        <v>1169.564807229732</v>
       </c>
       <c r="Y46" t="n">
-        <v>601.3488638934377</v>
+        <v>944.8291086184965</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>516.2162236769894</v>
+        <v>516.2162236769906</v>
       </c>
       <c r="L2" t="n">
-        <v>207.5901709378594</v>
+        <v>522.5652320666183</v>
       </c>
       <c r="M2" t="n">
-        <v>520.3700584608177</v>
+        <v>520.3700584608189</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>245.9833724089734</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>520.7291972846565</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,25 +8063,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>315.0216312432448</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>484.6441177421897</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>341.9586011924409</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>484.8313130037735</v>
       </c>
       <c r="P3" t="n">
-        <v>481.3394690065761</v>
+        <v>481.3394690065772</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,22 +8218,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>494.099071146226</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8300,13 +8300,13 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>70.59911775623726</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>559.8834573428708</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
@@ -8318,7 +8318,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
         <v>95.48539806284482</v>
@@ -8464,16 +8464,16 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>293.2845869185513</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8537,25 +8537,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>70.59911775623726</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>564.2543476875381</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8707,7 +8707,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
@@ -8774,10 +8774,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M12" t="n">
-        <v>771.9303349915991</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
@@ -8786,10 +8786,10 @@
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>156.8778172579053</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>77.22687637146549</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
-        <v>544.6182357151487</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>70.76403821083073</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,25 +9719,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K27" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>808.4518367176235</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
         <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>159.7989476750044</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10433,22 +10433,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>177.6401345621998</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
-        <v>574.4763360814417</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
         <v>877.4504173780091</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
@@ -10916,16 +10916,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>234.5959412371211</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>541.3135869795351</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11314,13 +11314,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>296.4004197234629</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11390,7 +11390,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
@@ -11399,7 +11399,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162598</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037904</v>
+        <v>19.14472531034906</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501628</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S13" t="n">
-        <v>149.9155538199163</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.57476598612145</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>128.400756503981</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162598</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037904</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>51.84035121586527</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>118.5842004238218</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501628</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T19" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>66.18179975725511</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198763</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
-        <v>93.88996572886853</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037904</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501628</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>241.6479458835352</v>
+        <v>51.84035121586513</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>128.400756503981</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037904</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>225.2905414513572</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925754</v>
+        <v>99.9266271006672</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>69.91363557455105</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>165.9240419915205</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.02625733618811</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>114.3843190526664</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>51.84035121586568</v>
       </c>
       <c r="T34" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>35.0783198279241</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>4.187993226648302</v>
+        <v>23.13171611061964</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F37" t="n">
         <v>133.4858729041767</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25557,10 +25557,10 @@
         <v>128.4007565039811</v>
       </c>
       <c r="E40" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F40" t="n">
-        <v>91.42563710895772</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>10.32447097817095</v>
       </c>
       <c r="Y40" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>36.46078111520825</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25848,10 +25848,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>221.5920803845231</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>93.42449318090684</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>308.5558614412304</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>59.75313003201435</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>79.21381862762365</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>604858.7322787478</v>
+        <v>604858.7322787479</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>625051.564355385</v>
+        <v>625051.5643553851</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>625051.5643553851</v>
+        <v>625051.564355385</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>625051.564355385</v>
+        <v>625051.5643553851</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>625051.564355385</v>
+        <v>625051.5643553851</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>625051.564355385</v>
+        <v>625051.5643553851</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>625051.564355385</v>
+        <v>625051.5643553851</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>625051.5643553851</v>
+        <v>625051.564355385</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>586376.6149168452</v>
+        <v>586376.614916845</v>
       </c>
       <c r="C2" t="n">
-        <v>586376.6149168453</v>
+        <v>586376.6149168449</v>
       </c>
       <c r="D2" t="n">
-        <v>586376.6149168452</v>
+        <v>586376.614916845</v>
       </c>
       <c r="E2" t="n">
-        <v>568257.9771323324</v>
+        <v>568257.977132332</v>
       </c>
       <c r="F2" t="n">
-        <v>568257.9771323325</v>
+        <v>568257.9771323323</v>
       </c>
       <c r="G2" t="n">
+        <v>568257.9771323322</v>
+      </c>
+      <c r="H2" t="n">
         <v>568257.977132332</v>
-      </c>
-      <c r="H2" t="n">
-        <v>568257.9771323323</v>
       </c>
       <c r="I2" t="n">
         <v>568257.9771323319</v>
       </c>
       <c r="J2" t="n">
+        <v>568257.9771323318</v>
+      </c>
+      <c r="K2" t="n">
+        <v>568257.9771323322</v>
+      </c>
+      <c r="L2" t="n">
+        <v>568257.9771323323</v>
+      </c>
+      <c r="M2" t="n">
         <v>568257.977132332</v>
       </c>
-      <c r="K2" t="n">
-        <v>568257.9771323324</v>
-      </c>
-      <c r="L2" t="n">
-        <v>568257.9771323317</v>
-      </c>
-      <c r="M2" t="n">
-        <v>568257.9771323322</v>
-      </c>
       <c r="N2" t="n">
-        <v>568257.9771323322</v>
+        <v>568257.9771323318</v>
       </c>
       <c r="O2" t="n">
-        <v>521367.601563169</v>
+        <v>521367.6015631691</v>
       </c>
       <c r="P2" t="n">
-        <v>521367.601563169</v>
+        <v>521367.6015631691</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108462</v>
+        <v>143124.2752108466</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.46086668859</v>
+        <v>30686.46086668822</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>135342.0294691534</v>
+        <v>135342.0294691537</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.77426110987</v>
+        <v>24445.77426110957</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>231775.9773255663</v>
+        <v>231775.977325566</v>
       </c>
       <c r="C4" t="n">
         <v>213059.5462795911</v>
@@ -26426,7 +26426,7 @@
         <v>213059.5462795911</v>
       </c>
       <c r="E4" t="n">
-        <v>118911.6321885296</v>
+        <v>118911.6321885295</v>
       </c>
       <c r="F4" t="n">
         <v>118911.6321885296</v>
@@ -26435,31 +26435,31 @@
         <v>118911.6321885296</v>
       </c>
       <c r="H4" t="n">
-        <v>118911.6321885296</v>
+        <v>118911.6321885295</v>
       </c>
       <c r="I4" t="n">
         <v>118911.6321885296</v>
       </c>
       <c r="J4" t="n">
-        <v>118911.6321885296</v>
+        <v>118911.6321885295</v>
       </c>
       <c r="K4" t="n">
-        <v>118911.6321885296</v>
+        <v>118911.6321885295</v>
       </c>
       <c r="L4" t="n">
-        <v>118911.6321885296</v>
+        <v>118911.6321885295</v>
       </c>
       <c r="M4" t="n">
         <v>118911.6321885295</v>
       </c>
       <c r="N4" t="n">
-        <v>118911.6321885296</v>
+        <v>118911.6321885295</v>
       </c>
       <c r="O4" t="n">
         <v>89101.60277166063</v>
       </c>
       <c r="P4" t="n">
-        <v>89101.60277166065</v>
+        <v>89101.60277166063</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742935</v>
+        <v>59594.05390742942</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26478,19 +26478,19 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="F5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="G5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="H5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="I5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="J5" t="n">
         <v>73345.15677686482</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151882.3084730034</v>
+        <v>151882.308473003</v>
       </c>
       <c r="C6" t="n">
-        <v>277261.5426920681</v>
+        <v>277261.542692068</v>
       </c>
       <c r="D6" t="n">
-        <v>307948.0035587566</v>
+        <v>307948.0035587564</v>
       </c>
       <c r="E6" t="n">
-        <v>160272.2718864243</v>
+        <v>160221.9423370227</v>
       </c>
       <c r="F6" t="n">
-        <v>376001.1881669381</v>
+        <v>375950.8586175364</v>
       </c>
       <c r="G6" t="n">
-        <v>376001.1881669376</v>
+        <v>375950.8586175363</v>
       </c>
       <c r="H6" t="n">
-        <v>376001.1881669378</v>
+        <v>375950.8586175363</v>
       </c>
       <c r="I6" t="n">
-        <v>376001.1881669375</v>
+        <v>375950.8586175361</v>
       </c>
       <c r="J6" t="n">
-        <v>240659.1586977843</v>
+        <v>240608.8291483824</v>
       </c>
       <c r="K6" t="n">
-        <v>351555.4139058281</v>
+        <v>351505.0843564268</v>
       </c>
       <c r="L6" t="n">
-        <v>376001.1881669373</v>
+        <v>375950.8586175365</v>
       </c>
       <c r="M6" t="n">
-        <v>215642.7376662551</v>
+        <v>215592.4081168536</v>
       </c>
       <c r="N6" t="n">
-        <v>376001.1881669378</v>
+        <v>375950.858617536</v>
       </c>
       <c r="O6" t="n">
-        <v>361400.7885466351</v>
+        <v>361220.2079539861</v>
       </c>
       <c r="P6" t="n">
-        <v>361400.7885466351</v>
+        <v>361220.2079539861</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037723</v>
+        <v>427.0798340037734</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037723</v>
+        <v>427.0798340037734</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625325</v>
+        <v>94.98373636625212</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037723</v>
+        <v>427.0798340037734</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625325</v>
+        <v>94.98373636625212</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627595</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037723</v>
+        <v>427.0798340037734</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625325</v>
+        <v>94.98373636625212</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>72.29635103004858</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -27447,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>245.4475083603554</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27472,7 +27472,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>55.15015973842863</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>103.9543291284546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>24.5311743691916</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>218.2147447782144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>317.2321563266348</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -27678,10 +27678,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>211.0986994240485</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -27791,10 +27791,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>154.9730520482199</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>115.9227025697305</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>214.4617355713115</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>265.8980835733709</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -27912,13 +27912,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>19.10615505383092</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -28076,10 +28076,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>177.8444843222617</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="41">
@@ -34701,28 +34701,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>427.0798340037723</v>
+        <v>427.0798340037734</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1047728750146</v>
+        <v>427.0798340037734</v>
       </c>
       <c r="M2" t="n">
-        <v>427.0798340037723</v>
+        <v>427.0798340037734</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>153.0710816523541</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>427.0798340037723</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>258.9071074323958</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>427.0798340037723</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>288.7652077986909</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>427.0798340037734</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0798340037723</v>
+        <v>427.0798340037734</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O5" t="n">
-        <v>400.9092955204429</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35020,13 +35020,13 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>14.48459394538821</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="O8" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>203.2507825193993</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35257,25 +35257,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>14.48459394538821</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35427,7 +35427,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
@@ -35494,10 +35494,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M12" t="n">
-        <v>714.3660512531817</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K13" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L13" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N13" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P13" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>103.6844238641553</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K16" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L16" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M16" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N16" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P16" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
-        <v>487.0539519767313</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>29.85810036629282</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K19" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L19" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M19" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N19" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P19" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>13.19975447241331</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K22" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L22" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M22" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N22" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P22" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K25" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L25" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M25" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N25" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P25" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K27" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>755.2584433238735</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>103.6844238641553</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>120.947516057361</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K34" t="n">
         <v>185.6124040720329</v>
@@ -37247,7 +37247,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
-        <v>516.9120523430242</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K37" t="n">
         <v>185.6124040720329</v>
@@ -37484,7 +37484,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
         <v>784.1601929209636</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>176.8444622371211</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K40" t="n">
         <v>185.6124040720329</v>
@@ -37721,7 +37721,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>487.0539519767314</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>29.85810036629282</v>
@@ -38034,13 +38034,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>240.5746369388475</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,7 +38110,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
@@ -38119,7 +38119,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
